--- a/data/pca/factorExposure/factorExposure_2011-10-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01340287339287845</v>
+        <v>-0.01441845327587228</v>
       </c>
       <c r="C2">
-        <v>0.03146714913038184</v>
+        <v>0.0002353393383823919</v>
       </c>
       <c r="D2">
-        <v>0.01995628372509757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03196966785472165</v>
+      </c>
+      <c r="E2">
+        <v>0.0006102173230534094</v>
+      </c>
+      <c r="F2">
+        <v>0.03967411662491491</v>
+      </c>
+      <c r="G2">
+        <v>0.01234217650035246</v>
+      </c>
+      <c r="H2">
+        <v>-0.01325764682589697</v>
+      </c>
+      <c r="I2">
+        <v>-0.01434520048913469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07958727823555585</v>
+        <v>-0.09242051734269358</v>
       </c>
       <c r="C4">
-        <v>0.05608525102503704</v>
+        <v>-0.04073921442157784</v>
       </c>
       <c r="D4">
-        <v>0.08281761235662749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07311572785555827</v>
+      </c>
+      <c r="E4">
+        <v>-0.03006738659912652</v>
+      </c>
+      <c r="F4">
+        <v>0.05081889771775654</v>
+      </c>
+      <c r="G4">
+        <v>-0.02640832255775897</v>
+      </c>
+      <c r="H4">
+        <v>0.02373211595562975</v>
+      </c>
+      <c r="I4">
+        <v>0.06414893920596632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1152125102558196</v>
+        <v>-0.1255959547239774</v>
       </c>
       <c r="C6">
-        <v>0.04768778493457861</v>
+        <v>0.005907751012542119</v>
       </c>
       <c r="D6">
-        <v>0.01059274498323383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03624092831205918</v>
+      </c>
+      <c r="E6">
+        <v>0.02006815918511164</v>
+      </c>
+      <c r="F6">
+        <v>0.04417441558814533</v>
+      </c>
+      <c r="G6">
+        <v>-0.04771004563066472</v>
+      </c>
+      <c r="H6">
+        <v>-0.193360005663512</v>
+      </c>
+      <c r="I6">
+        <v>0.02639880762861456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.06335885948421469</v>
+        <v>-0.06761480877546669</v>
       </c>
       <c r="C7">
-        <v>0.04329421806449197</v>
+        <v>-0.03566837619039015</v>
       </c>
       <c r="D7">
-        <v>0.03432502664682652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05273741802516013</v>
+      </c>
+      <c r="E7">
+        <v>-0.01647088822645703</v>
+      </c>
+      <c r="F7">
+        <v>0.05844650982215249</v>
+      </c>
+      <c r="G7">
+        <v>0.0198243293245748</v>
+      </c>
+      <c r="H7">
+        <v>0.009567169481112459</v>
+      </c>
+      <c r="I7">
+        <v>0.04062152184596908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04184510852890019</v>
+        <v>-0.04410015801594695</v>
       </c>
       <c r="C8">
-        <v>-0.004350966689343232</v>
+        <v>-0.02649220474880902</v>
       </c>
       <c r="D8">
-        <v>0.06402821008358786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00868728859175078</v>
+      </c>
+      <c r="E8">
+        <v>-0.03655914890075254</v>
+      </c>
+      <c r="F8">
+        <v>0.0704475106865258</v>
+      </c>
+      <c r="G8">
+        <v>-0.04965300246805034</v>
+      </c>
+      <c r="H8">
+        <v>-0.02130384998372658</v>
+      </c>
+      <c r="I8">
+        <v>0.1110150265002581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07547864475828452</v>
+        <v>-0.08400581597021847</v>
       </c>
       <c r="C9">
-        <v>0.04054978931635896</v>
+        <v>-0.04104255460335663</v>
       </c>
       <c r="D9">
-        <v>0.07551546093141391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0577294822225917</v>
+      </c>
+      <c r="E9">
+        <v>-0.03063781322674152</v>
+      </c>
+      <c r="F9">
+        <v>0.04686324844886587</v>
+      </c>
+      <c r="G9">
+        <v>-0.04085227989419174</v>
+      </c>
+      <c r="H9">
+        <v>0.02651947322332884</v>
+      </c>
+      <c r="I9">
+        <v>0.07175982688221917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02402510450186643</v>
+        <v>-0.05621504794016493</v>
       </c>
       <c r="C10">
-        <v>0.02449415443319182</v>
+        <v>0.1922975032485481</v>
       </c>
       <c r="D10">
-        <v>-0.1758772228509494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.04128236921433798</v>
+      </c>
+      <c r="E10">
+        <v>-0.003675505091401015</v>
+      </c>
+      <c r="F10">
+        <v>0.05841696768631611</v>
+      </c>
+      <c r="G10">
+        <v>0.03943812870342889</v>
+      </c>
+      <c r="H10">
+        <v>-0.04796630871557141</v>
+      </c>
+      <c r="I10">
+        <v>-0.05671524608095518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.07046413943660773</v>
+        <v>-0.07344174020143976</v>
       </c>
       <c r="C11">
-        <v>0.03558615032491807</v>
+        <v>-0.04289767529267335</v>
       </c>
       <c r="D11">
-        <v>0.0575296394329873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0469317751375954</v>
+      </c>
+      <c r="E11">
+        <v>-0.00952755942123331</v>
+      </c>
+      <c r="F11">
+        <v>0.04186265798363824</v>
+      </c>
+      <c r="G11">
+        <v>-0.0484224516601154</v>
+      </c>
+      <c r="H11">
+        <v>0.05479560712982204</v>
+      </c>
+      <c r="I11">
+        <v>0.06581189529392921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0662356563878904</v>
+        <v>-0.07092527694492895</v>
       </c>
       <c r="C12">
-        <v>0.04685324692067101</v>
+        <v>-0.02781156717106364</v>
       </c>
       <c r="D12">
-        <v>0.04449508924166053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04913057021571392</v>
+      </c>
+      <c r="E12">
+        <v>-0.01794917611529838</v>
+      </c>
+      <c r="F12">
+        <v>0.03220127240629727</v>
+      </c>
+      <c r="G12">
+        <v>-0.02120514317823853</v>
+      </c>
+      <c r="H12">
+        <v>0.02135959738392482</v>
+      </c>
+      <c r="I12">
+        <v>0.08520853680627967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06730437371864358</v>
+        <v>-0.06635545048183697</v>
       </c>
       <c r="C13">
-        <v>0.04531329878928392</v>
+        <v>-0.0266883153330979</v>
       </c>
       <c r="D13">
-        <v>0.06090122661097749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04832785103303733</v>
+      </c>
+      <c r="E13">
+        <v>-0.05158861247007167</v>
+      </c>
+      <c r="F13">
+        <v>0.02632058952408088</v>
+      </c>
+      <c r="G13">
+        <v>-0.006848293867980017</v>
+      </c>
+      <c r="H13">
+        <v>0.03540875884004754</v>
+      </c>
+      <c r="I13">
+        <v>0.09463216943466657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03004807688646956</v>
+        <v>-0.04091686887223314</v>
       </c>
       <c r="C14">
-        <v>0.03148671832691959</v>
+        <v>0.001996460788987553</v>
       </c>
       <c r="D14">
-        <v>0.002426544843705863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03480223071997127</v>
+      </c>
+      <c r="E14">
+        <v>-0.02086332802228565</v>
+      </c>
+      <c r="F14">
+        <v>0.02482122305359191</v>
+      </c>
+      <c r="G14">
+        <v>-0.02486459165028425</v>
+      </c>
+      <c r="H14">
+        <v>0.06373458675328814</v>
+      </c>
+      <c r="I14">
+        <v>0.0592016407971954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04529522239506462</v>
+        <v>-0.0407188572628862</v>
       </c>
       <c r="C15">
-        <v>0.007492074898627687</v>
+        <v>-0.01478406516333461</v>
       </c>
       <c r="D15">
-        <v>0.02597377969956238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006875261878490756</v>
+      </c>
+      <c r="E15">
+        <v>-0.03874223982390496</v>
+      </c>
+      <c r="F15">
+        <v>0.003022909292805168</v>
+      </c>
+      <c r="G15">
+        <v>-0.02238076976580351</v>
+      </c>
+      <c r="H15">
+        <v>0.01945812463370835</v>
+      </c>
+      <c r="I15">
+        <v>0.03580726321956559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05964132868013749</v>
+        <v>-0.07113706822286407</v>
       </c>
       <c r="C16">
-        <v>0.0381546687624234</v>
+        <v>-0.04064783183235481</v>
       </c>
       <c r="D16">
-        <v>0.06124954615477866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05430790569473525</v>
+      </c>
+      <c r="E16">
+        <v>-0.01854563947310998</v>
+      </c>
+      <c r="F16">
+        <v>0.035919729719738</v>
+      </c>
+      <c r="G16">
+        <v>-0.02327938800922553</v>
+      </c>
+      <c r="H16">
+        <v>0.03259142501152538</v>
+      </c>
+      <c r="I16">
+        <v>0.04309371594729516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06384939212017764</v>
+        <v>-0.06266870785947112</v>
       </c>
       <c r="C20">
-        <v>0.02000908434964044</v>
+        <v>-0.03414980977140181</v>
       </c>
       <c r="D20">
-        <v>0.05452830255895252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0272305892414557</v>
+      </c>
+      <c r="E20">
+        <v>-0.0043494413011074</v>
+      </c>
+      <c r="F20">
+        <v>0.03173131286793548</v>
+      </c>
+      <c r="G20">
+        <v>-0.01749237020692956</v>
+      </c>
+      <c r="H20">
+        <v>0.04282190228814337</v>
+      </c>
+      <c r="I20">
+        <v>0.09754485289525194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03389271518750932</v>
+        <v>-0.0278326004062402</v>
       </c>
       <c r="C21">
-        <v>0.006139996707134381</v>
+        <v>-0.01872249506004074</v>
       </c>
       <c r="D21">
-        <v>0.00759379471312336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.006485918249970942</v>
+      </c>
+      <c r="E21">
+        <v>-0.03845756396330276</v>
+      </c>
+      <c r="F21">
+        <v>0.0002784386690329273</v>
+      </c>
+      <c r="G21">
+        <v>-0.004009490922374959</v>
+      </c>
+      <c r="H21">
+        <v>-0.05507481850914511</v>
+      </c>
+      <c r="I21">
+        <v>0.0361060664603739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.1083935798866667</v>
+        <v>-0.09096968493312244</v>
       </c>
       <c r="C22">
-        <v>0.02401025759418451</v>
+        <v>-0.05069450632986293</v>
       </c>
       <c r="D22">
-        <v>0.08811621456734786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01447617180582664</v>
+      </c>
+      <c r="E22">
+        <v>-0.5570136195770917</v>
+      </c>
+      <c r="F22">
+        <v>0.04317736202340825</v>
+      </c>
+      <c r="G22">
+        <v>0.2620084905345468</v>
+      </c>
+      <c r="H22">
+        <v>-0.1378952261042263</v>
+      </c>
+      <c r="I22">
+        <v>-0.2328701327714187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.1090889920379639</v>
+        <v>-0.09181032409728271</v>
       </c>
       <c r="C23">
-        <v>0.02494297914252033</v>
+        <v>-0.05084224401774987</v>
       </c>
       <c r="D23">
-        <v>0.08819845084569079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01561793685663295</v>
+      </c>
+      <c r="E23">
+        <v>-0.5604005855571597</v>
+      </c>
+      <c r="F23">
+        <v>0.04495560988855339</v>
+      </c>
+      <c r="G23">
+        <v>0.256414636491946</v>
+      </c>
+      <c r="H23">
+        <v>-0.1375657823494456</v>
+      </c>
+      <c r="I23">
+        <v>-0.2351768857551237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07742631784272963</v>
+        <v>-0.08108549014203077</v>
       </c>
       <c r="C24">
-        <v>0.04335167847917698</v>
+        <v>-0.03814476464283158</v>
       </c>
       <c r="D24">
-        <v>0.06261683468604282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05251045751448109</v>
+      </c>
+      <c r="E24">
+        <v>-0.0235869303040625</v>
+      </c>
+      <c r="F24">
+        <v>0.04417074704458958</v>
+      </c>
+      <c r="G24">
+        <v>-0.03823671688837074</v>
+      </c>
+      <c r="H24">
+        <v>0.02333058536325686</v>
+      </c>
+      <c r="I24">
+        <v>0.06534651987977631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07569358671864633</v>
+        <v>-0.07872830464221792</v>
       </c>
       <c r="C25">
-        <v>0.05127974328606567</v>
+        <v>-0.02784236122800681</v>
       </c>
       <c r="D25">
-        <v>0.0573926995452492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05584298469169639</v>
+      </c>
+      <c r="E25">
+        <v>-0.03169471930549448</v>
+      </c>
+      <c r="F25">
+        <v>0.04069098064981544</v>
+      </c>
+      <c r="G25">
+        <v>-0.03995646324600782</v>
+      </c>
+      <c r="H25">
+        <v>0.028137088649718</v>
+      </c>
+      <c r="I25">
+        <v>0.07339525717848548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04783184704597585</v>
+        <v>-0.04733547789007261</v>
       </c>
       <c r="C26">
-        <v>0.006516000059839801</v>
+        <v>-0.01653367937046347</v>
       </c>
       <c r="D26">
-        <v>0.01228891147517101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.005942795969851734</v>
+      </c>
+      <c r="E26">
+        <v>-0.04089471128230644</v>
+      </c>
+      <c r="F26">
+        <v>0.03233767323955666</v>
+      </c>
+      <c r="G26">
+        <v>-0.01926716316670918</v>
+      </c>
+      <c r="H26">
+        <v>0.03798849434196465</v>
+      </c>
+      <c r="I26">
+        <v>0.01287870475817876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04426380522404148</v>
+        <v>-0.07535112543617961</v>
       </c>
       <c r="C28">
-        <v>0.06107489645002308</v>
+        <v>0.296233862778446</v>
       </c>
       <c r="D28">
-        <v>-0.2841792629709971</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0631135579615003</v>
+      </c>
+      <c r="E28">
+        <v>-0.01653760165651389</v>
+      </c>
+      <c r="F28">
+        <v>0.04296207744509071</v>
+      </c>
+      <c r="G28">
+        <v>-0.01815649727516365</v>
+      </c>
+      <c r="H28">
+        <v>-0.06230747252461309</v>
+      </c>
+      <c r="I28">
+        <v>-0.007867981608793444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.05071280126460179</v>
+        <v>-0.05332021909837442</v>
       </c>
       <c r="C29">
-        <v>0.04486003562880565</v>
+        <v>0.005994271145410227</v>
       </c>
       <c r="D29">
-        <v>-0.003420879935408269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0375897044815726</v>
+      </c>
+      <c r="E29">
+        <v>-0.03906852269681418</v>
+      </c>
+      <c r="F29">
+        <v>0.03715313235399345</v>
+      </c>
+      <c r="G29">
+        <v>-0.01042017588175784</v>
+      </c>
+      <c r="H29">
+        <v>0.08384309901292461</v>
+      </c>
+      <c r="I29">
+        <v>0.04757766657071673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1397718109428959</v>
+        <v>-0.1302113787146257</v>
       </c>
       <c r="C30">
-        <v>0.07660758480371903</v>
+        <v>-0.03928014159789658</v>
       </c>
       <c r="D30">
-        <v>0.09771660853509745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.07823375249421427</v>
+      </c>
+      <c r="E30">
+        <v>-0.06825328140474519</v>
+      </c>
+      <c r="F30">
+        <v>0.06331692204712192</v>
+      </c>
+      <c r="G30">
+        <v>-0.05088456843296196</v>
+      </c>
+      <c r="H30">
+        <v>-0.0493982544955127</v>
+      </c>
+      <c r="I30">
+        <v>0.3105414462524996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05039871316691794</v>
+        <v>-0.0476360909112896</v>
       </c>
       <c r="C31">
-        <v>0.02346334585108622</v>
+        <v>-0.02761940060436803</v>
       </c>
       <c r="D31">
-        <v>0.02121178132353378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02712951211258962</v>
+      </c>
+      <c r="E31">
+        <v>-0.02481168064428055</v>
+      </c>
+      <c r="F31">
+        <v>0.01336022301950269</v>
+      </c>
+      <c r="G31">
+        <v>0.005641776767838198</v>
+      </c>
+      <c r="H31">
+        <v>0.06500027987679148</v>
+      </c>
+      <c r="I31">
+        <v>0.0276614367241265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03648269112330628</v>
+        <v>-0.04341425599775835</v>
       </c>
       <c r="C32">
-        <v>0.01080579927517111</v>
+        <v>0.004231677869566861</v>
       </c>
       <c r="D32">
-        <v>0.02857831592004225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01184883938365232</v>
+      </c>
+      <c r="E32">
+        <v>-0.07568058342756211</v>
+      </c>
+      <c r="F32">
+        <v>-0.001164630773991551</v>
+      </c>
+      <c r="G32">
+        <v>-0.0204482523425341</v>
+      </c>
+      <c r="H32">
+        <v>-0.02426356166825362</v>
+      </c>
+      <c r="I32">
+        <v>-0.01712077461495328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.09207706645330734</v>
+        <v>-0.09549989059951103</v>
       </c>
       <c r="C33">
-        <v>0.0434415235479598</v>
+        <v>-0.03424379153426579</v>
       </c>
       <c r="D33">
-        <v>0.04385875711322105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04510037338675778</v>
+      </c>
+      <c r="E33">
+        <v>-0.02674607849120964</v>
+      </c>
+      <c r="F33">
+        <v>0.005148157460956426</v>
+      </c>
+      <c r="G33">
+        <v>0.0001398397537602406</v>
+      </c>
+      <c r="H33">
+        <v>0.05401506463663586</v>
+      </c>
+      <c r="I33">
+        <v>0.07484789469765295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.06052932603584583</v>
+        <v>-0.0682341433375435</v>
       </c>
       <c r="C34">
-        <v>0.0212518250370906</v>
+        <v>-0.03521835661058987</v>
       </c>
       <c r="D34">
-        <v>0.05583360723240949</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03363787955551636</v>
+      </c>
+      <c r="E34">
+        <v>-0.02200996903988073</v>
+      </c>
+      <c r="F34">
+        <v>0.02736225017408461</v>
+      </c>
+      <c r="G34">
+        <v>-0.02379079738833525</v>
+      </c>
+      <c r="H34">
+        <v>0.04411506797953377</v>
+      </c>
+      <c r="I34">
+        <v>0.05151021086500239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03777674994614786</v>
+        <v>-0.03730055993936936</v>
       </c>
       <c r="C35">
-        <v>0.01479022812490495</v>
+        <v>-0.01186922509714794</v>
       </c>
       <c r="D35">
-        <v>0.01664107620755718</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01717122493880791</v>
+      </c>
+      <c r="E35">
+        <v>-0.01668464050249367</v>
+      </c>
+      <c r="F35">
+        <v>-0.009954103510506844</v>
+      </c>
+      <c r="G35">
+        <v>0.0004654998830229985</v>
+      </c>
+      <c r="H35">
+        <v>0.03210178771197678</v>
+      </c>
+      <c r="I35">
+        <v>0.04901818971321222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.03128182635856014</v>
+        <v>-0.03169875597492527</v>
       </c>
       <c r="C36">
-        <v>0.01368430985005714</v>
+        <v>-0.01056859662519049</v>
       </c>
       <c r="D36">
-        <v>0.02019289683061761</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01457313743200207</v>
+      </c>
+      <c r="E36">
+        <v>-0.0354205260204578</v>
+      </c>
+      <c r="F36">
+        <v>0.03722865621856974</v>
+      </c>
+      <c r="G36">
+        <v>-0.01523214178268098</v>
+      </c>
+      <c r="H36">
+        <v>0.03554014612569531</v>
+      </c>
+      <c r="I36">
+        <v>0.06386119317005165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.06697780681078218</v>
+        <v>-0.05589522339132193</v>
       </c>
       <c r="C38">
-        <v>6.182017427902395e-06</v>
+        <v>-0.02836186071476247</v>
       </c>
       <c r="D38">
-        <v>-0.002898606469342823</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.004140452254641618</v>
+      </c>
+      <c r="E38">
+        <v>-0.04680618148929376</v>
+      </c>
+      <c r="F38">
+        <v>0.002685025002352892</v>
+      </c>
+      <c r="G38">
+        <v>0.01520497235710624</v>
+      </c>
+      <c r="H38">
+        <v>0.02870120656825891</v>
+      </c>
+      <c r="I38">
+        <v>0.04218210763485509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09704562924472493</v>
+        <v>-0.1023223994597317</v>
       </c>
       <c r="C39">
-        <v>0.05982085069487269</v>
+        <v>-0.02911858023535734</v>
       </c>
       <c r="D39">
-        <v>0.04555486581342875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06334588561734303</v>
+      </c>
+      <c r="E39">
+        <v>-0.01527243146573236</v>
+      </c>
+      <c r="F39">
+        <v>0.02252016384981048</v>
+      </c>
+      <c r="G39">
+        <v>-0.04226270879731185</v>
+      </c>
+      <c r="H39">
+        <v>0.01385298354852521</v>
+      </c>
+      <c r="I39">
+        <v>0.053666790900312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07894994080523721</v>
+        <v>-0.05578043820488586</v>
       </c>
       <c r="C40">
-        <v>0.0186008159567271</v>
+        <v>-0.03892970461793801</v>
       </c>
       <c r="D40">
-        <v>0.0261043720606186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.006811943346238533</v>
+      </c>
+      <c r="E40">
+        <v>-0.06127673268193553</v>
+      </c>
+      <c r="F40">
+        <v>-0.01458184192738551</v>
+      </c>
+      <c r="G40">
+        <v>-0.03418439458339196</v>
+      </c>
+      <c r="H40">
+        <v>-0.04771235831076072</v>
+      </c>
+      <c r="I40">
+        <v>0.2534210127346065</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.05099785607047264</v>
+        <v>-0.04824416992059061</v>
       </c>
       <c r="C41">
-        <v>0.01006007783287703</v>
+        <v>-0.03016208096746426</v>
       </c>
       <c r="D41">
-        <v>0.03118220786152468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01481201077970632</v>
+      </c>
+      <c r="E41">
+        <v>0.002435458086135017</v>
+      </c>
+      <c r="F41">
+        <v>-0.008749027303984891</v>
+      </c>
+      <c r="G41">
+        <v>-0.01315537683101034</v>
+      </c>
+      <c r="H41">
+        <v>0.03608976408267636</v>
+      </c>
+      <c r="I41">
+        <v>0.03422349546053436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05790236647849791</v>
+        <v>-0.06215628893112103</v>
       </c>
       <c r="C43">
-        <v>0.02869455397942017</v>
+        <v>-0.02001369609335895</v>
       </c>
       <c r="D43">
-        <v>0.009493804561415298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0307164843053397</v>
+      </c>
+      <c r="E43">
+        <v>-0.01795611795957132</v>
+      </c>
+      <c r="F43">
+        <v>0.0219293155736685</v>
+      </c>
+      <c r="G43">
+        <v>0.01000755929141281</v>
+      </c>
+      <c r="H43">
+        <v>0.05619005644084108</v>
+      </c>
+      <c r="I43">
+        <v>0.004511899986747627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09628041985819524</v>
+        <v>-0.09404876249912489</v>
       </c>
       <c r="C44">
-        <v>0.01058222672245094</v>
+        <v>-0.04727410922500455</v>
       </c>
       <c r="D44">
-        <v>0.05565430383394752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02060108473493258</v>
+      </c>
+      <c r="E44">
+        <v>-0.0772980577931284</v>
+      </c>
+      <c r="F44">
+        <v>0.09966367941740313</v>
+      </c>
+      <c r="G44">
+        <v>-0.05586295448326648</v>
+      </c>
+      <c r="H44">
+        <v>0.05347708434758619</v>
+      </c>
+      <c r="I44">
+        <v>0.1170260956054277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02798151080304184</v>
+        <v>-0.03982940687517772</v>
       </c>
       <c r="C46">
-        <v>0.02244174875500609</v>
+        <v>-0.02135747449114047</v>
       </c>
       <c r="D46">
-        <v>0.03116154719225279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03666545688324284</v>
+      </c>
+      <c r="E46">
+        <v>-0.03121103270421968</v>
+      </c>
+      <c r="F46">
+        <v>0.02710549925104089</v>
+      </c>
+      <c r="G46">
+        <v>0.004953854574265009</v>
+      </c>
+      <c r="H46">
+        <v>0.02705974379017498</v>
+      </c>
+      <c r="I46">
+        <v>0.01748788039382478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03750315961438419</v>
+        <v>-0.0453203648104883</v>
       </c>
       <c r="C47">
-        <v>0.02340817417614204</v>
+        <v>0.001334719035894609</v>
       </c>
       <c r="D47">
-        <v>-0.005267803887869337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0209129432597734</v>
+      </c>
+      <c r="E47">
+        <v>-0.04434317846357836</v>
+      </c>
+      <c r="F47">
+        <v>0.004112031875244432</v>
+      </c>
+      <c r="G47">
+        <v>0.03184285791642413</v>
+      </c>
+      <c r="H47">
+        <v>0.02307592096197265</v>
+      </c>
+      <c r="I47">
+        <v>0.04600938645178104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.04303970004965191</v>
+        <v>-0.0431436500876787</v>
       </c>
       <c r="C48">
-        <v>0.02113932789060258</v>
+        <v>-0.01119544032225569</v>
       </c>
       <c r="D48">
-        <v>0.02860344292096506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01808159090581777</v>
+      </c>
+      <c r="E48">
+        <v>-0.04764007445572704</v>
+      </c>
+      <c r="F48">
+        <v>0.01367988137751812</v>
+      </c>
+      <c r="G48">
+        <v>-0.007809518817830061</v>
+      </c>
+      <c r="H48">
+        <v>0.01237538628892418</v>
+      </c>
+      <c r="I48">
+        <v>0.0419087297098955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1656226528585837</v>
+        <v>-0.2003609109728666</v>
       </c>
       <c r="C49">
-        <v>0.04145939847468046</v>
+        <v>-0.01207479473159307</v>
       </c>
       <c r="D49">
-        <v>0.02180101942002508</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.0491795461683062</v>
+      </c>
+      <c r="E49">
+        <v>0.2142182779469898</v>
+      </c>
+      <c r="F49">
+        <v>-0.01012904069761704</v>
+      </c>
+      <c r="G49">
+        <v>0.1270985573778367</v>
+      </c>
+      <c r="H49">
+        <v>-0.218381991035001</v>
+      </c>
+      <c r="I49">
+        <v>-0.06586869765878711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04995793872650368</v>
+        <v>-0.05125217872630007</v>
       </c>
       <c r="C50">
-        <v>0.03375909179738624</v>
+        <v>-0.02234392914632915</v>
       </c>
       <c r="D50">
-        <v>0.0344742561249694</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03901956507666823</v>
+      </c>
+      <c r="E50">
+        <v>-0.02891958204497192</v>
+      </c>
+      <c r="F50">
+        <v>0.01133881870538019</v>
+      </c>
+      <c r="G50">
+        <v>-0.007652861570616769</v>
+      </c>
+      <c r="H50">
+        <v>0.06575833221443242</v>
+      </c>
+      <c r="I50">
+        <v>0.0257245104169341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02716917899705069</v>
+        <v>-0.03511950518217879</v>
       </c>
       <c r="C51">
-        <v>-0.002184491917781601</v>
+        <v>0.00386359065574275</v>
       </c>
       <c r="D51">
-        <v>-0.01035764461914524</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007608717708741025</v>
+      </c>
+      <c r="E51">
+        <v>0.01134609467762075</v>
+      </c>
+      <c r="F51">
+        <v>0.01147811518547271</v>
+      </c>
+      <c r="G51">
+        <v>0.0203202922516815</v>
+      </c>
+      <c r="H51">
+        <v>-0.01891091882496741</v>
+      </c>
+      <c r="I51">
+        <v>-0.01687790153569744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1586413695097008</v>
+        <v>-0.1608802473607095</v>
       </c>
       <c r="C53">
-        <v>0.07577305228358459</v>
+        <v>0.002602237079187838</v>
       </c>
       <c r="D53">
-        <v>-0.01363905769736873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0565864558488329</v>
+      </c>
+      <c r="E53">
+        <v>0.02918173899565192</v>
+      </c>
+      <c r="F53">
+        <v>-0.005376048905197622</v>
+      </c>
+      <c r="G53">
+        <v>0.0002061553653344573</v>
+      </c>
+      <c r="H53">
+        <v>0.2075554647519001</v>
+      </c>
+      <c r="I53">
+        <v>-0.1067073935975342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.06178252127575161</v>
+        <v>-0.06144825056484467</v>
       </c>
       <c r="C54">
-        <v>0.02175058936648966</v>
+        <v>-0.001271756583231124</v>
       </c>
       <c r="D54">
-        <v>0.01910497533264783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01836391273870585</v>
+      </c>
+      <c r="E54">
+        <v>-0.06693418708100286</v>
+      </c>
+      <c r="F54">
+        <v>0.03524336060974856</v>
+      </c>
+      <c r="G54">
+        <v>-0.04420540765211372</v>
+      </c>
+      <c r="H54">
+        <v>0.0375333334670664</v>
+      </c>
+      <c r="I54">
+        <v>0.1212870618686959</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1019063091914135</v>
+        <v>-0.1018534094768702</v>
       </c>
       <c r="C55">
-        <v>0.04712982821338442</v>
+        <v>-0.01230249537683507</v>
       </c>
       <c r="D55">
-        <v>0.01165044169602694</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0402728318582208</v>
+      </c>
+      <c r="E55">
+        <v>0.004110355667094162</v>
+      </c>
+      <c r="F55">
+        <v>0.0202053710791383</v>
+      </c>
+      <c r="G55">
+        <v>-0.02635345052830309</v>
+      </c>
+      <c r="H55">
+        <v>0.1595062944401609</v>
+      </c>
+      <c r="I55">
+        <v>-0.03256615496667824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1473617356689629</v>
+        <v>-0.1517104088291472</v>
       </c>
       <c r="C56">
-        <v>0.0912444431741835</v>
+        <v>-0.008312846773235124</v>
       </c>
       <c r="D56">
-        <v>-0.007959993813552921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0748900725034769</v>
+      </c>
+      <c r="E56">
+        <v>0.01385768063889322</v>
+      </c>
+      <c r="F56">
+        <v>0.01350422003391736</v>
+      </c>
+      <c r="G56">
+        <v>-0.02753642722279183</v>
+      </c>
+      <c r="H56">
+        <v>0.1970580375952888</v>
+      </c>
+      <c r="I56">
+        <v>-0.120845011642752</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1179630247082492</v>
+        <v>-0.08793180799839301</v>
       </c>
       <c r="C58">
-        <v>-0.04424301404124732</v>
+        <v>-0.0600566014634018</v>
       </c>
       <c r="D58">
-        <v>0.05503507705506788</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.05841418743609475</v>
+      </c>
+      <c r="E58">
+        <v>-0.113310307061496</v>
+      </c>
+      <c r="F58">
+        <v>0.05180795303423748</v>
+      </c>
+      <c r="G58">
+        <v>0.1201418162275452</v>
+      </c>
+      <c r="H58">
+        <v>-0.1745644919645266</v>
+      </c>
+      <c r="I58">
+        <v>0.5319762169168497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1249343683428676</v>
+        <v>-0.1521093026690415</v>
       </c>
       <c r="C59">
-        <v>0.07814525020154435</v>
+        <v>0.3575345296801536</v>
       </c>
       <c r="D59">
-        <v>-0.4367578460546121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.09382282880464241</v>
+      </c>
+      <c r="E59">
+        <v>0.001260921872135005</v>
+      </c>
+      <c r="F59">
+        <v>0.006674745697521131</v>
+      </c>
+      <c r="G59">
+        <v>-0.009991135868621924</v>
+      </c>
+      <c r="H59">
+        <v>0.01969277832195869</v>
+      </c>
+      <c r="I59">
+        <v>-0.04412275884051983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2117463723857775</v>
+        <v>-0.2395436067888302</v>
       </c>
       <c r="C60">
-        <v>0.08127067028976621</v>
+        <v>-0.01242227063289379</v>
       </c>
       <c r="D60">
-        <v>0.002105811294816062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07350902913245265</v>
+      </c>
+      <c r="E60">
+        <v>0.1474335783643438</v>
+      </c>
+      <c r="F60">
+        <v>0.02400819967530192</v>
+      </c>
+      <c r="G60">
+        <v>0.001800400347318875</v>
+      </c>
+      <c r="H60">
+        <v>-0.1484328332556099</v>
+      </c>
+      <c r="I60">
+        <v>-0.1157858992582014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0789726125819597</v>
+        <v>-0.08540394205864139</v>
       </c>
       <c r="C61">
-        <v>0.04843355250982853</v>
+        <v>-0.0202997678781999</v>
       </c>
       <c r="D61">
-        <v>0.02635912484694214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05174416728952204</v>
+      </c>
+      <c r="E61">
+        <v>-0.01529344167663983</v>
+      </c>
+      <c r="F61">
+        <v>0.02719376401873534</v>
+      </c>
+      <c r="G61">
+        <v>-0.04188022168278829</v>
+      </c>
+      <c r="H61">
+        <v>0.0657835446828333</v>
+      </c>
+      <c r="I61">
+        <v>0.03360185124881497</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1386237454191638</v>
+        <v>-0.1428036988456305</v>
       </c>
       <c r="C62">
-        <v>0.05137883539319926</v>
+        <v>-0.02374757130012146</v>
       </c>
       <c r="D62">
-        <v>-0.004669478701079041</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04420746737806532</v>
+      </c>
+      <c r="E62">
+        <v>0.04287032230163873</v>
+      </c>
+      <c r="F62">
+        <v>-0.03397122541442545</v>
+      </c>
+      <c r="G62">
+        <v>-0.05762262170769023</v>
+      </c>
+      <c r="H62">
+        <v>0.1952837877257052</v>
+      </c>
+      <c r="I62">
+        <v>-0.118727366307236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05745538449726922</v>
+        <v>-0.05204645492040705</v>
       </c>
       <c r="C63">
-        <v>0.01804420737187239</v>
+        <v>-0.01429889495975021</v>
       </c>
       <c r="D63">
-        <v>0.02161169289956</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01746446316053651</v>
+      </c>
+      <c r="E63">
+        <v>-0.02742627129158912</v>
+      </c>
+      <c r="F63">
+        <v>0.01016009078823337</v>
+      </c>
+      <c r="G63">
+        <v>-0.04631783426779661</v>
+      </c>
+      <c r="H63">
+        <v>0.03038215600972549</v>
+      </c>
+      <c r="I63">
+        <v>0.03628187320869428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1084645505037646</v>
+        <v>-0.1126994377344608</v>
       </c>
       <c r="C64">
-        <v>0.03126826767625011</v>
+        <v>-0.01006275980922774</v>
       </c>
       <c r="D64">
-        <v>0.01433172414692701</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02842930067318804</v>
+      </c>
+      <c r="E64">
+        <v>-0.03152424906401671</v>
+      </c>
+      <c r="F64">
+        <v>0.05737004971611043</v>
+      </c>
+      <c r="G64">
+        <v>-0.05000915857042625</v>
+      </c>
+      <c r="H64">
+        <v>0.01374825349387426</v>
+      </c>
+      <c r="I64">
+        <v>0.05120713703245682</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1275136188224308</v>
+        <v>-0.1331973812135478</v>
       </c>
       <c r="C65">
-        <v>0.04679236531254846</v>
+        <v>0.007669187105642879</v>
       </c>
       <c r="D65">
-        <v>0.02361035603019691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03896572087221074</v>
+      </c>
+      <c r="E65">
+        <v>0.002877931832228698</v>
+      </c>
+      <c r="F65">
+        <v>0.02920393382023163</v>
+      </c>
+      <c r="G65">
+        <v>-0.08391477086296947</v>
+      </c>
+      <c r="H65">
+        <v>-0.2117454393440853</v>
+      </c>
+      <c r="I65">
+        <v>0.06580587645582869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1542625773044081</v>
+        <v>-0.1487592579773276</v>
       </c>
       <c r="C66">
-        <v>0.08090974167050033</v>
+        <v>-0.06897295900524646</v>
       </c>
       <c r="D66">
-        <v>0.08407169360149164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09342236857889237</v>
+      </c>
+      <c r="E66">
+        <v>0.005918785547050821</v>
+      </c>
+      <c r="F66">
+        <v>0.01039715394566359</v>
+      </c>
+      <c r="G66">
+        <v>-0.0823093073440256</v>
+      </c>
+      <c r="H66">
+        <v>0.07679404075954908</v>
+      </c>
+      <c r="I66">
+        <v>0.1011363319367402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.09364378145656094</v>
+        <v>-0.09399957040933977</v>
       </c>
       <c r="C67">
-        <v>0.004963068018341221</v>
+        <v>-0.03460642829707061</v>
       </c>
       <c r="D67">
-        <v>0.003647211441784638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007364324377707105</v>
+      </c>
+      <c r="E67">
+        <v>-0.007872964671160249</v>
+      </c>
+      <c r="F67">
+        <v>0.009303956557982348</v>
+      </c>
+      <c r="G67">
+        <v>0.02707453157615885</v>
+      </c>
+      <c r="H67">
+        <v>0.02311701330833831</v>
+      </c>
+      <c r="I67">
+        <v>0.006791110634035631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04700686523681506</v>
+        <v>-0.06724820581010012</v>
       </c>
       <c r="C68">
-        <v>0.0441197003297098</v>
+        <v>0.2752148907522403</v>
       </c>
       <c r="D68">
-        <v>-0.2568800715045061</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0683691983378662</v>
+      </c>
+      <c r="E68">
+        <v>-0.03516374606779452</v>
+      </c>
+      <c r="F68">
+        <v>0.02165853443043021</v>
+      </c>
+      <c r="G68">
+        <v>0.003864125860060356</v>
+      </c>
+      <c r="H68">
+        <v>0.01714360710529947</v>
+      </c>
+      <c r="I68">
+        <v>0.01886123071924587</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06218869207932311</v>
+        <v>-0.05545390214753471</v>
       </c>
       <c r="C69">
-        <v>0.02240291936307405</v>
+        <v>-0.01459523564211993</v>
       </c>
       <c r="D69">
-        <v>0.01540931712262631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01419609112600849</v>
+      </c>
+      <c r="E69">
+        <v>-0.02995852150048077</v>
+      </c>
+      <c r="F69">
+        <v>-0.009492420675865388</v>
+      </c>
+      <c r="G69">
+        <v>-0.0006951784163426445</v>
+      </c>
+      <c r="H69">
+        <v>0.03931605214904959</v>
+      </c>
+      <c r="I69">
+        <v>0.0160648541209239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.009909352577815127</v>
+        <v>-0.0320123508879603</v>
       </c>
       <c r="C70">
-        <v>0.0003271267167120468</v>
+        <v>0.003132601164066067</v>
       </c>
       <c r="D70">
-        <v>-0.01470656010262211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.003157956815153448</v>
+      </c>
+      <c r="E70">
+        <v>0.0234812234752858</v>
+      </c>
+      <c r="F70">
+        <v>-0.001816013568840878</v>
+      </c>
+      <c r="G70">
+        <v>0.007287032972055715</v>
+      </c>
+      <c r="H70">
+        <v>-0.03000839230058086</v>
+      </c>
+      <c r="I70">
+        <v>0.02307979215408729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.0457763715675147</v>
+        <v>-0.07505441015989496</v>
       </c>
       <c r="C71">
-        <v>0.03897569761833194</v>
+        <v>0.2967538975455528</v>
       </c>
       <c r="D71">
-        <v>-0.2911289737169903</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.07722579411410502</v>
+      </c>
+      <c r="E71">
+        <v>-0.02424268229902307</v>
+      </c>
+      <c r="F71">
+        <v>0.04662375908260344</v>
+      </c>
+      <c r="G71">
+        <v>-0.0001742569090122486</v>
+      </c>
+      <c r="H71">
+        <v>0.01660859745389834</v>
+      </c>
+      <c r="I71">
+        <v>0.01320860792169349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1424043533621976</v>
+        <v>-0.13924845218026</v>
       </c>
       <c r="C72">
-        <v>0.04163659093343666</v>
+        <v>0.006934700304146725</v>
       </c>
       <c r="D72">
-        <v>-0.02269067785896205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01155415391076581</v>
+      </c>
+      <c r="E72">
+        <v>0.01112427422343759</v>
+      </c>
+      <c r="F72">
+        <v>-0.167468059151321</v>
+      </c>
+      <c r="G72">
+        <v>-0.1125168261291301</v>
+      </c>
+      <c r="H72">
+        <v>0.01762521522354775</v>
+      </c>
+      <c r="I72">
+        <v>-0.01178567227606313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2627099865108951</v>
+        <v>-0.2652719622590066</v>
       </c>
       <c r="C73">
-        <v>0.06603218633284519</v>
+        <v>-0.08611495548025272</v>
       </c>
       <c r="D73">
-        <v>0.06864110222757647</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06361853949036793</v>
+      </c>
+      <c r="E73">
+        <v>0.3340770050533551</v>
+      </c>
+      <c r="F73">
+        <v>0.007778955577693639</v>
+      </c>
+      <c r="G73">
+        <v>0.2176161687348099</v>
+      </c>
+      <c r="H73">
+        <v>-0.3102973990152822</v>
+      </c>
+      <c r="I73">
+        <v>-0.04899408571956008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.08289018834484758</v>
+        <v>-0.09167376664780044</v>
       </c>
       <c r="C74">
-        <v>0.07600564901348601</v>
+        <v>-0.00955433148299222</v>
       </c>
       <c r="D74">
-        <v>0.004814667825820455</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07186385525846532</v>
+      </c>
+      <c r="E74">
+        <v>0.001321611007300642</v>
+      </c>
+      <c r="F74">
+        <v>0.001530069708935264</v>
+      </c>
+      <c r="G74">
+        <v>0.02286993602626625</v>
+      </c>
+      <c r="H74">
+        <v>0.1285620914389054</v>
+      </c>
+      <c r="I74">
+        <v>-0.02253441530551962</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1134765875971935</v>
+        <v>-0.1054900888768431</v>
       </c>
       <c r="C75">
-        <v>0.0462928362418336</v>
+        <v>-0.01845935771397797</v>
       </c>
       <c r="D75">
-        <v>0.00274491284083267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02677291761424194</v>
+      </c>
+      <c r="E75">
+        <v>-0.004997529637852057</v>
+      </c>
+      <c r="F75">
+        <v>-0.005621514446406239</v>
+      </c>
+      <c r="G75">
+        <v>0.005082129995123385</v>
+      </c>
+      <c r="H75">
+        <v>0.1101701109523013</v>
+      </c>
+      <c r="I75">
+        <v>-0.05615209256768701</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1300778101602175</v>
+        <v>-0.1361023946152804</v>
       </c>
       <c r="C76">
-        <v>0.07070682795217553</v>
+        <v>-0.02718812654603703</v>
       </c>
       <c r="D76">
-        <v>0.02712617407501003</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07419631132465876</v>
+      </c>
+      <c r="E76">
+        <v>-0.01224187935753173</v>
+      </c>
+      <c r="F76">
+        <v>0.03889051279581184</v>
+      </c>
+      <c r="G76">
+        <v>-0.02506263957431813</v>
+      </c>
+      <c r="H76">
+        <v>0.2505998299552389</v>
+      </c>
+      <c r="I76">
+        <v>-0.1032435683964825</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1310453962859501</v>
+        <v>-0.1032718924897206</v>
       </c>
       <c r="C77">
-        <v>-0.03099014167162127</v>
+        <v>-0.05464665514713259</v>
       </c>
       <c r="D77">
-        <v>0.06824986347420908</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05211643829231609</v>
+      </c>
+      <c r="E77">
+        <v>-0.1246132658650202</v>
+      </c>
+      <c r="F77">
+        <v>0.0701978961435374</v>
+      </c>
+      <c r="G77">
+        <v>-0.7758050533791192</v>
+      </c>
+      <c r="H77">
+        <v>-0.3141299346743984</v>
+      </c>
+      <c r="I77">
+        <v>-0.2644843115920305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.110170306081987</v>
+        <v>-0.1518545407101876</v>
       </c>
       <c r="C78">
-        <v>0.02604346494120454</v>
+        <v>-0.04674090438154446</v>
       </c>
       <c r="D78">
-        <v>0.07812253379513047</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06084184109507391</v>
+      </c>
+      <c r="E78">
+        <v>-0.09479322612773297</v>
+      </c>
+      <c r="F78">
+        <v>0.06007682288601286</v>
+      </c>
+      <c r="G78">
+        <v>0.00439912784367869</v>
+      </c>
+      <c r="H78">
+        <v>-0.1267536753714029</v>
+      </c>
+      <c r="I78">
+        <v>0.0290565906347804</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1420077469570279</v>
+        <v>-0.1438608662095685</v>
       </c>
       <c r="C79">
-        <v>0.0501660113689222</v>
+        <v>-0.02943573682455413</v>
       </c>
       <c r="D79">
-        <v>0.02821502629295406</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04370232878230101</v>
+      </c>
+      <c r="E79">
+        <v>0.01468813113039947</v>
+      </c>
+      <c r="F79">
+        <v>0.0166696560773465</v>
+      </c>
+      <c r="G79">
+        <v>-0.03510876654571301</v>
+      </c>
+      <c r="H79">
+        <v>0.1769699517636779</v>
+      </c>
+      <c r="I79">
+        <v>-0.0770479938288425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03452544224677699</v>
+        <v>-0.03995192211874765</v>
       </c>
       <c r="C80">
-        <v>0.01786375843242981</v>
+        <v>-0.004438481491068562</v>
       </c>
       <c r="D80">
-        <v>0.02403946359973494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02287424347824054</v>
+      </c>
+      <c r="E80">
+        <v>0.05268578174474331</v>
+      </c>
+      <c r="F80">
+        <v>0.001546497287151171</v>
+      </c>
+      <c r="G80">
+        <v>0.0133731064241648</v>
+      </c>
+      <c r="H80">
+        <v>0.03037449004888662</v>
+      </c>
+      <c r="I80">
+        <v>0.1283317307456771</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1354572714466004</v>
+        <v>-0.1316997389893789</v>
       </c>
       <c r="C81">
-        <v>0.06490117088482411</v>
+        <v>-0.009556610854025578</v>
       </c>
       <c r="D81">
-        <v>0.009138559376967897</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04730716761292594</v>
+      </c>
+      <c r="E81">
+        <v>-0.0017544157197203</v>
+      </c>
+      <c r="F81">
+        <v>0.01908698426033806</v>
+      </c>
+      <c r="G81">
+        <v>-0.003548299912096055</v>
+      </c>
+      <c r="H81">
+        <v>0.1618742672370929</v>
+      </c>
+      <c r="I81">
+        <v>-0.02142478871230487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1291376099367078</v>
+        <v>-0.1293843560427394</v>
       </c>
       <c r="C82">
-        <v>0.06149319575278332</v>
+        <v>-0.01156649215771287</v>
       </c>
       <c r="D82">
-        <v>0.0124807806285873</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05182048763308018</v>
+      </c>
+      <c r="E82">
+        <v>0.01191964713686466</v>
+      </c>
+      <c r="F82">
+        <v>0.03268406798355083</v>
+      </c>
+      <c r="G82">
+        <v>0.001600324049593877</v>
+      </c>
+      <c r="H82">
+        <v>0.2390168972474185</v>
+      </c>
+      <c r="I82">
+        <v>-0.1121023650133177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06608987707774498</v>
+        <v>-0.08112061302781164</v>
       </c>
       <c r="C83">
-        <v>-0.04925209274341587</v>
+        <v>-0.03374410962513612</v>
       </c>
       <c r="D83">
-        <v>-0.004798444761467425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04694468067019727</v>
+      </c>
+      <c r="E83">
+        <v>-0.004784374824076928</v>
+      </c>
+      <c r="F83">
+        <v>0.04256153772566875</v>
+      </c>
+      <c r="G83">
+        <v>0.0683750975484053</v>
+      </c>
+      <c r="H83">
+        <v>-0.01013213043331804</v>
+      </c>
+      <c r="I83">
+        <v>0.1019784011545063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03603859681488842</v>
+        <v>-0.03407380355999613</v>
       </c>
       <c r="C84">
-        <v>0.03245739486275223</v>
+        <v>-0.03059012958749546</v>
       </c>
       <c r="D84">
-        <v>0.0319518491759171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03562355346951399</v>
+      </c>
+      <c r="E84">
+        <v>-0.03548297948295902</v>
+      </c>
+      <c r="F84">
+        <v>-0.03633221678190906</v>
+      </c>
+      <c r="G84">
+        <v>0.04291085707361347</v>
+      </c>
+      <c r="H84">
+        <v>0.03225325257963321</v>
+      </c>
+      <c r="I84">
+        <v>0.1016324387986101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1170155218975191</v>
+        <v>-0.1204705648779718</v>
       </c>
       <c r="C85">
-        <v>0.02878281194036518</v>
+        <v>-0.02979282995497538</v>
       </c>
       <c r="D85">
-        <v>0.03828385711748365</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02969418940935259</v>
+      </c>
+      <c r="E85">
+        <v>0.00755245162757045</v>
+      </c>
+      <c r="F85">
+        <v>0.04307082339933891</v>
+      </c>
+      <c r="G85">
+        <v>-0.009383331964863741</v>
+      </c>
+      <c r="H85">
+        <v>0.161283349012758</v>
+      </c>
+      <c r="I85">
+        <v>-0.06674006901849411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.05879402929739696</v>
+        <v>-0.05481799362996758</v>
       </c>
       <c r="C86">
-        <v>0.02283035794849455</v>
+        <v>-0.02853454025828756</v>
       </c>
       <c r="D86">
-        <v>0.06433487667870516</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02352162027615981</v>
+      </c>
+      <c r="E86">
+        <v>-0.02490540391303401</v>
+      </c>
+      <c r="F86">
+        <v>0.02084602559120173</v>
+      </c>
+      <c r="G86">
+        <v>0.02814510813898952</v>
+      </c>
+      <c r="H86">
+        <v>-0.05259234869890241</v>
+      </c>
+      <c r="I86">
+        <v>-0.01315728963855409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1252597763895925</v>
+        <v>-0.1267078086373761</v>
       </c>
       <c r="C87">
-        <v>0.06192263106530251</v>
+        <v>-0.05807376077676529</v>
       </c>
       <c r="D87">
-        <v>0.09405620516087967</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06416256186141578</v>
+      </c>
+      <c r="E87">
+        <v>-0.05201090860240511</v>
+      </c>
+      <c r="F87">
+        <v>0.03283913479245573</v>
+      </c>
+      <c r="G87">
+        <v>-0.1580342092294702</v>
+      </c>
+      <c r="H87">
+        <v>-0.09098667986335496</v>
+      </c>
+      <c r="I87">
+        <v>-6.166947544330508e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05931391725289095</v>
+        <v>-0.06523379435866561</v>
       </c>
       <c r="C88">
-        <v>0.03016982029823702</v>
+        <v>-0.02689410884774884</v>
       </c>
       <c r="D88">
-        <v>0.0247031603508924</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03887123311559471</v>
+      </c>
+      <c r="E88">
+        <v>0.001754455147929159</v>
+      </c>
+      <c r="F88">
+        <v>0.02350155861291608</v>
+      </c>
+      <c r="G88">
+        <v>-0.008574954159668495</v>
+      </c>
+      <c r="H88">
+        <v>0.0374424609348729</v>
+      </c>
+      <c r="I88">
+        <v>0.0339110786822528</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.07178791183818524</v>
+        <v>-0.1164047772139809</v>
       </c>
       <c r="C89">
-        <v>0.07448823328257285</v>
+        <v>0.3734948012447352</v>
       </c>
       <c r="D89">
-        <v>-0.3190969646124652</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.06941283016624454</v>
+      </c>
+      <c r="E89">
+        <v>-0.02986267034022278</v>
+      </c>
+      <c r="F89">
+        <v>0.08951951776209226</v>
+      </c>
+      <c r="G89">
+        <v>0.01503134681559625</v>
+      </c>
+      <c r="H89">
+        <v>0.01483229375218435</v>
+      </c>
+      <c r="I89">
+        <v>0.07626421529601195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06411160095216487</v>
+        <v>-0.0867626553701752</v>
       </c>
       <c r="C90">
-        <v>0.04003870271890659</v>
+        <v>0.2773760870171597</v>
       </c>
       <c r="D90">
-        <v>-0.2830022030653691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.07659461495958196</v>
+      </c>
+      <c r="E90">
+        <v>-0.01666440855722992</v>
+      </c>
+      <c r="F90">
+        <v>0.03498656687223664</v>
+      </c>
+      <c r="G90">
+        <v>-0.005248982358722439</v>
+      </c>
+      <c r="H90">
+        <v>-0.009396272157144591</v>
+      </c>
+      <c r="I90">
+        <v>0.09110345753919052</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09847337679706</v>
+        <v>-0.09348695341332756</v>
       </c>
       <c r="C91">
-        <v>0.04942296872702946</v>
+        <v>-0.01901435920824672</v>
       </c>
       <c r="D91">
-        <v>0.009700953508009313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03600734989980196</v>
+      </c>
+      <c r="E91">
+        <v>-0.0008428141777327875</v>
+      </c>
+      <c r="F91">
+        <v>0.003874772669307806</v>
+      </c>
+      <c r="G91">
+        <v>0.01450615203789235</v>
+      </c>
+      <c r="H91">
+        <v>0.08249684530938323</v>
+      </c>
+      <c r="I91">
+        <v>-0.04607242827170845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06007751043283649</v>
+        <v>-0.08854299561820986</v>
       </c>
       <c r="C92">
-        <v>0.06161164068012061</v>
+        <v>0.3308748431470873</v>
       </c>
       <c r="D92">
-        <v>-0.3272016311792397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.07581643246062358</v>
+      </c>
+      <c r="E92">
+        <v>-0.02753174020338131</v>
+      </c>
+      <c r="F92">
+        <v>0.04571223986570695</v>
+      </c>
+      <c r="G92">
+        <v>-0.003826880581999512</v>
+      </c>
+      <c r="H92">
+        <v>0.02627455953300791</v>
+      </c>
+      <c r="I92">
+        <v>0.01847883563245788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0552786967096209</v>
+        <v>-0.08563009741187304</v>
       </c>
       <c r="C93">
-        <v>0.0553207137938088</v>
+        <v>0.3128550482312636</v>
       </c>
       <c r="D93">
-        <v>-0.3093189399467349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0680859251234628</v>
+      </c>
+      <c r="E93">
+        <v>-0.0007006774512651634</v>
+      </c>
+      <c r="F93">
+        <v>0.02724075875521988</v>
+      </c>
+      <c r="G93">
+        <v>-0.0101642715698157</v>
+      </c>
+      <c r="H93">
+        <v>-0.002231725424899137</v>
+      </c>
+      <c r="I93">
+        <v>0.01160117477655426</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1281766016138425</v>
+        <v>-0.1242629790682484</v>
       </c>
       <c r="C94">
-        <v>0.03214913104226023</v>
+        <v>-0.03998397676451604</v>
       </c>
       <c r="D94">
-        <v>0.05110489447575264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02735498527152693</v>
+      </c>
+      <c r="E94">
+        <v>0.001708597229387358</v>
+      </c>
+      <c r="F94">
+        <v>0.01402679204410343</v>
+      </c>
+      <c r="G94">
+        <v>0.05607386961232873</v>
+      </c>
+      <c r="H94">
+        <v>0.1075108354084159</v>
+      </c>
+      <c r="I94">
+        <v>-0.05383328528799236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1230547822042605</v>
+        <v>-0.132963679731668</v>
       </c>
       <c r="C95">
-        <v>0.01465659129623195</v>
+        <v>-0.05902591850121924</v>
       </c>
       <c r="D95">
-        <v>0.0777166730647282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0237677478575928</v>
+      </c>
+      <c r="E95">
+        <v>-0.02006672901659032</v>
+      </c>
+      <c r="F95">
+        <v>0.04642568516837174</v>
+      </c>
+      <c r="G95">
+        <v>-0.04589647903774242</v>
+      </c>
+      <c r="H95">
+        <v>-0.1286025084228616</v>
+      </c>
+      <c r="I95">
+        <v>0.04924509807538405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2345139561201697</v>
+        <v>-0.191783507767866</v>
       </c>
       <c r="C97">
-        <v>0.0616291946868175</v>
+        <v>0.04054913759127549</v>
       </c>
       <c r="D97">
-        <v>-0.1143861105505429</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0441264995485865</v>
+      </c>
+      <c r="E97">
+        <v>-0.1297987772109833</v>
+      </c>
+      <c r="F97">
+        <v>-0.9267350797846829</v>
+      </c>
+      <c r="G97">
+        <v>-0.05611957478870156</v>
+      </c>
+      <c r="H97">
+        <v>-0.007999454562447736</v>
+      </c>
+      <c r="I97">
+        <v>0.09168341608296765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2572814010187309</v>
+        <v>-0.2829071240791591</v>
       </c>
       <c r="C98">
-        <v>0.07391442444982836</v>
+        <v>-0.04300948323154172</v>
       </c>
       <c r="D98">
-        <v>0.02944832296549153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06323109062818713</v>
+      </c>
+      <c r="E98">
+        <v>0.2613545780645667</v>
+      </c>
+      <c r="F98">
+        <v>-0.03353581648153164</v>
+      </c>
+      <c r="G98">
+        <v>0.2659124805385293</v>
+      </c>
+      <c r="H98">
+        <v>-0.2027069360233367</v>
+      </c>
+      <c r="I98">
+        <v>-0.2234611916633318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.3530289032826437</v>
+        <v>-0.2311474506626519</v>
       </c>
       <c r="C99">
-        <v>-0.9112603873955509</v>
+        <v>-0.2895816762948634</v>
       </c>
       <c r="D99">
-        <v>-0.08321905364514437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.9011360621536019</v>
+      </c>
+      <c r="E99">
+        <v>0.03356493163671634</v>
+      </c>
+      <c r="F99">
+        <v>0.07616160506199836</v>
+      </c>
+      <c r="G99">
+        <v>0.02331696690396472</v>
+      </c>
+      <c r="H99">
+        <v>0.106848552604608</v>
+      </c>
+      <c r="I99">
+        <v>-0.00532450830842328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.05078671954516598</v>
+        <v>-0.05338238884791802</v>
       </c>
       <c r="C101">
-        <v>0.04518512384943964</v>
+        <v>0.005807922837233361</v>
       </c>
       <c r="D101">
-        <v>-0.003173056979019612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03807340553793904</v>
+      </c>
+      <c r="E101">
+        <v>-0.03870089329077284</v>
+      </c>
+      <c r="F101">
+        <v>0.03708683333754954</v>
+      </c>
+      <c r="G101">
+        <v>-0.009137600830012081</v>
+      </c>
+      <c r="H101">
+        <v>0.08261665992048649</v>
+      </c>
+      <c r="I101">
+        <v>0.04775423532046395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
